--- a/data/washington/gis_data/processed/WDFW_closure_zone_key.xlsx
+++ b/data/washington/gis_data/processed/WDFW_closure_zone_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/washington/gis_data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2D5CB3-5AB7-4241-BCCD-3A7A58CCFF6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683DE43C-FCDF-594C-8B83-155116DFA1EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="6660" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1544,11 +1544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1577,7 +1576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1611,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1662,7 +1661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1730,7 +1729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1849,7 +1848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1866,7 +1865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1883,7 +1882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1900,7 +1899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1917,7 +1916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1951,7 +1950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2036,7 +2035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2070,7 +2069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2121,7 +2120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2138,7 +2137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2223,7 +2222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -2240,7 +2239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -2257,7 +2256,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -2274,7 +2273,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -2291,7 +2290,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -2325,7 +2324,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -2342,7 +2341,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -2359,7 +2358,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>223</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>223</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>223</v>
       </c>
@@ -2461,7 +2460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>223</v>
       </c>
@@ -2478,7 +2477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>223</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -2529,7 +2528,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -2563,7 +2562,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>223</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>223</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>223</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -2682,7 +2681,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>224</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>224</v>
       </c>
@@ -2733,7 +2732,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>224</v>
       </c>
@@ -2750,7 +2749,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>224</v>
       </c>
@@ -2767,7 +2766,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>224</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>224</v>
       </c>
@@ -2801,7 +2800,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>221</v>
       </c>
@@ -2818,7 +2817,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>221</v>
       </c>
@@ -2835,7 +2834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>224</v>
       </c>
@@ -2852,7 +2851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>224</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>224</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>224</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -2920,7 +2919,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>224</v>
       </c>
@@ -2937,7 +2936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>224</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>224</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>224</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>221</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>224</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>224</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>224</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>221</v>
       </c>
@@ -3107,7 +3106,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>221</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>221</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>219</v>
       </c>
@@ -3158,7 +3157,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>221</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>221</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>224</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>221</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>221</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>221</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>224</v>
       </c>
@@ -3311,7 +3310,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>221</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>221</v>
       </c>
@@ -3345,7 +3344,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>221</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>221</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>73</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>224</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -3430,7 +3429,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -3447,7 +3446,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>219</v>
       </c>
@@ -3464,7 +3463,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>218</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>218</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>218</v>
       </c>
@@ -3515,7 +3514,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>218</v>
       </c>
@@ -3532,7 +3531,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>218</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>218</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>218</v>
       </c>
@@ -3583,7 +3582,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>218</v>
       </c>
@@ -3600,7 +3599,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>218</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>218</v>
       </c>
@@ -3634,7 +3633,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>218</v>
       </c>
@@ -3651,7 +3650,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>218</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>218</v>
       </c>
@@ -3685,7 +3684,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>218</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>218</v>
       </c>
@@ -3719,7 +3718,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>219</v>
       </c>
@@ -3736,7 +3735,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>219</v>
       </c>
@@ -3753,7 +3752,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>219</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>219</v>
       </c>
@@ -3787,7 +3786,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>218</v>
       </c>
@@ -3804,7 +3803,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>218</v>
       </c>
@@ -3821,7 +3820,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>218</v>
       </c>
@@ -3838,7 +3837,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>219</v>
       </c>
@@ -3855,7 +3854,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>219</v>
       </c>
@@ -3872,7 +3871,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>219</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>219</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>219</v>
       </c>
@@ -3923,7 +3922,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>219</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>218</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>218</v>
       </c>
@@ -3974,7 +3973,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>218</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>218</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>218</v>
       </c>
@@ -4025,7 +4024,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>219</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>219</v>
       </c>
@@ -4059,7 +4058,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>219</v>
       </c>
@@ -4076,7 +4075,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>219</v>
       </c>
@@ -4093,7 +4092,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>219</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>218</v>
       </c>
@@ -4127,7 +4126,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>218</v>
       </c>
@@ -4144,7 +4143,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>218</v>
       </c>
@@ -4161,7 +4160,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>219</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>219</v>
       </c>
@@ -4195,7 +4194,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>218</v>
       </c>
@@ -4212,7 +4211,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>218</v>
       </c>
@@ -4229,7 +4228,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>218</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>218</v>
       </c>
@@ -4263,7 +4262,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>219</v>
       </c>
@@ -4280,7 +4279,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>219</v>
       </c>
@@ -4297,7 +4296,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>219</v>
       </c>
@@ -4314,7 +4313,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>219</v>
       </c>
@@ -4331,7 +4330,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>218</v>
       </c>
@@ -4348,7 +4347,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>219</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>219</v>
       </c>
@@ -4382,7 +4381,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>219</v>
       </c>
@@ -4399,7 +4398,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>219</v>
       </c>
@@ -4416,7 +4415,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>218</v>
       </c>
@@ -4433,7 +4432,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>218</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>218</v>
       </c>
@@ -4467,7 +4466,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>218</v>
       </c>
@@ -4484,7 +4483,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>218</v>
       </c>
@@ -4501,7 +4500,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>218</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>218</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>218</v>
       </c>
@@ -4552,7 +4551,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>219</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>224</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>224</v>
       </c>
@@ -4603,7 +4602,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>224</v>
       </c>
@@ -4620,7 +4619,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>224</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>224</v>
       </c>
@@ -4654,7 +4653,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>224</v>
       </c>
@@ -4671,7 +4670,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>224</v>
       </c>
@@ -4688,7 +4687,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>224</v>
       </c>
@@ -4705,7 +4704,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>224</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>224</v>
       </c>
@@ -4739,7 +4738,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>224</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>224</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>224</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>224</v>
       </c>
@@ -4807,7 +4806,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>224</v>
       </c>
@@ -4824,7 +4823,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>224</v>
       </c>
@@ -4841,7 +4840,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>224</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>224</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>224</v>
       </c>
@@ -4892,7 +4891,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>224</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>224</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>223</v>
       </c>
@@ -4943,7 +4942,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>73</v>
       </c>
@@ -4960,7 +4959,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -4977,7 +4976,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>73</v>
       </c>
@@ -4995,13 +4994,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E202" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="45"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E202" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>